--- a/Harmonogram.xlsx
+++ b/Harmonogram.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lojza\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lojza\Desktop\Škola\Diplomka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B4A9BF-25A1-45AB-8129-C0B3EF20437C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E542AD-F451-4AFE-A73B-F40A971665C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Pátek</t>
   </si>
@@ -85,13 +85,28 @@
   </si>
   <si>
     <t>Datum (do)</t>
+  </si>
+  <si>
+    <t>Nerozpracováno</t>
+  </si>
+  <si>
+    <t>Kontrolováno</t>
+  </si>
+  <si>
+    <t>Rozpracováno</t>
+  </si>
+  <si>
+    <t>✚</t>
+  </si>
+  <si>
+    <t>✎</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,8 +139,20 @@
       <name val="Vafle Light VUT"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Vafle Light VUT"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,8 +171,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -153,46 +210,172 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="1"/>
+      </left>
+      <right style="dashed">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="1"/>
+      </left>
+      <right style="dashed">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="1"/>
+      </left>
+      <right style="dashed">
+        <color theme="1"/>
+      </right>
+      <top style="dashed">
+        <color theme="1"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color theme="1"/>
+      </right>
+      <top style="dashed">
+        <color theme="1"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="1"/>
+      </left>
+      <right style="dashed">
+        <color theme="1"/>
+      </right>
+      <top style="dashed">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color theme="1"/>
+      </right>
+      <top style="dashed">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="6">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -213,26 +396,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -542,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,222 +719,215 @@
     <col min="4" max="4" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20">
+        <v>44295</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="12">
+        <v>44299</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
-        <v>44295</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="B4" s="24">
+        <v>44302</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7">
-        <v>44299</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B5" s="20">
+        <v>44306</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7">
-        <v>44302</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="B6" s="12">
+        <v>44309</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="20">
+        <v>44325</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7">
-        <v>44306</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="B8" s="12">
+        <v>44327</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="9" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="20">
+        <v>44330</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="7">
-        <v>44309</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="B10" s="20">
+        <v>44333</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="7">
-        <v>44325</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
+    <row r="11" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="20">
+        <v>44337</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="7">
-        <v>44327</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7">
-        <v>44330</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="7">
-        <v>44333</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7">
-        <v>44337</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D11">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="✗">
-      <formula>NOT(ISERROR(SEARCH("✗",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="✗">
-      <formula>NOT(ISERROR(SEARCH("✗",D2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="✗">
-      <formula>NOT(ISERROR(SEARCH("✗",D4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="✗">
-      <formula>NOT(ISERROR(SEARCH("✗",D4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <mergeCells count="4">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{86F8691E-802F-48F6-8CC4-4911E12557BD}">
-            <xm:f>NOT(ISERROR(SEARCH($E$1,D2)))</xm:f>
-            <xm:f>$E$1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D2:D11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{0C487514-9DFF-44BA-B54F-ADA64EB32204}">
-            <xm:f>NOT(ISERROR(SEARCH($E$1,D4)))</xm:f>
-            <xm:f>$E$1</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>D4</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Harmonogram.xlsx
+++ b/Harmonogram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lojza\Desktop\Škola\Diplomka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E542AD-F451-4AFE-A73B-F40A971665C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F2490F-D108-42B0-B212-7184D6DE3684}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Spalinový kanál</t>
   </si>
   <si>
-    <t>Přímá metoda</t>
-  </si>
-  <si>
     <t>Deadline (včetně výpočtu a textu)</t>
   </si>
   <si>
@@ -51,15 +48,9 @@
     <t>Ekonomizér 1 a 2</t>
   </si>
   <si>
-    <t>Teorie</t>
-  </si>
-  <si>
     <t>Úvod, závěr, abstrakt</t>
   </si>
   <si>
-    <t>Formátování</t>
-  </si>
-  <si>
     <t>Splněno</t>
   </si>
   <si>
@@ -100,6 +91,15 @@
   </si>
   <si>
     <t>✎</t>
+  </si>
+  <si>
+    <t>Stechiometrie, účinnost, výkony TS ploch</t>
+  </si>
+  <si>
+    <t>Potrubí a pevnostní výpočty kotle</t>
+  </si>
+  <si>
+    <t>Teorie, obrázky, formátování</t>
   </si>
 </sst>
 </file>
@@ -310,14 +310,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,79 +354,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -708,7 +644,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -720,204 +656,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19">
+        <v>44310</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="27"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44312</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="23">
+        <v>44314</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="27" t="s">
+      <c r="I4" s="27"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="19">
+        <v>44320</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20">
-        <v>44295</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="12">
-        <v>44299</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="24">
-        <v>44302</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="20">
-        <v>44306</v>
-      </c>
-      <c r="C5" s="21" t="s">
+      <c r="B6" s="11">
+        <v>44323</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="12">
-        <v>44309</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>16</v>
+      <c r="D6" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="9"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="20">
-        <v>44325</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>16</v>
+      <c r="A7" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="19">
+        <v>44327</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44328</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="19">
+        <v>44332</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="19">
+        <v>44334</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19">
+        <v>44337</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="12">
-        <v>44327</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="20">
-        <v>44330</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="20">
-        <v>44333</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="19" t="s">
+      <c r="D11" s="21" t="s">
         <v>13</v>
-      </c>
-      <c r="B11" s="20">
-        <v>44337</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Harmonogram.xlsx
+++ b/Harmonogram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lojza\Desktop\Škola\Diplomka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F2490F-D108-42B0-B212-7184D6DE3684}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBCEAFC-9226-4065-9DD8-6A5279FEC2D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Ekonomizér 1 a 2</t>
   </si>
   <si>
-    <t>Úvod, závěr, abstrakt</t>
-  </si>
-  <si>
     <t>Splněno</t>
   </si>
   <si>
@@ -96,10 +93,13 @@
     <t>Stechiometrie, účinnost, výkony TS ploch</t>
   </si>
   <si>
-    <t>Potrubí a pevnostní výpočty kotle</t>
-  </si>
-  <si>
     <t>Teorie, obrázky, formátování</t>
+  </si>
+  <si>
+    <t>Úvod, abstrakt, závěr</t>
+  </si>
+  <si>
+    <t>Potrubí, tah a pevnostní výpočty kotle</t>
   </si>
 </sst>
 </file>
@@ -660,13 +660,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="9"/>
@@ -683,24 +683,24 @@
         <v>44310</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" s="27"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="11">
         <v>44312</v>
@@ -709,14 +709,14 @@
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="3"/>
@@ -732,21 +732,21 @@
         <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="19">
         <v>44320</v>
@@ -755,14 +755,14 @@
         <v>5</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="3"/>
@@ -778,7 +778,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="8"/>
@@ -788,44 +788,44 @@
     </row>
     <row r="7" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="19">
-        <v>44327</v>
+        <v>44328</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44332</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" s="11">
-        <v>44328</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="19">
-        <v>44332</v>
+        <v>44333</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
@@ -833,27 +833,27 @@
         <v>0</v>
       </c>
       <c r="B10" s="19">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="19">
         <v>44337</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Harmonogram.xlsx
+++ b/Harmonogram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lojza\Desktop\Škola\Diplomka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBCEAFC-9226-4065-9DD8-6A5279FEC2D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF8EBE4-B49D-4E81-8A8B-12323894ADC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -355,9 +355,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -644,7 +641,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,17 +682,17 @@
       <c r="C2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>20</v>
+      <c r="D2" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="27"/>
+      <c r="I2" s="26"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
@@ -708,17 +705,17 @@
       <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>20</v>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="27"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
@@ -731,17 +728,17 @@
       <c r="C4" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
+      <c r="D4" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="27"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
@@ -754,17 +751,17 @@
       <c r="C5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>12</v>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="27"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">

--- a/Harmonogram.xlsx
+++ b/Harmonogram.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lojza\Desktop\Škola\Diplomka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF8EBE4-B49D-4E81-8A8B-12323894ADC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA5EA47-70DA-4C9F-B09B-8496328F5F18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -333,9 +333,6 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -641,7 +638,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,16 +650,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="2"/>
@@ -673,26 +670,26 @@
       <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>44310</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>19</v>
+      <c r="D2" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
@@ -705,50 +702,50 @@
       <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>44314</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>44320</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -758,10 +755,10 @@
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
@@ -774,8 +771,8 @@
       <c r="C6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>12</v>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="8"/>
@@ -784,17 +781,17 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>44328</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>12</v>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
@@ -807,49 +804,49 @@
       <c r="C8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="18">
+        <v>44333</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="18">
+        <v>44335</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="19">
-        <v>44333</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="19">
-        <v>44335</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="11" spans="1:10" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="18">
         <v>44337</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>12</v>
       </c>
     </row>
